--- a/工作日程.xlsx
+++ b/工作日程.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,12 +66,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -98,6 +105,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -146,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +189,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,6 +241,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,33 +437,33 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>42951</v>
       </c>
       <c r="E1" s="1">
         <v>42955</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -433,7 +477,7 @@
         <v>42959</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -444,7 +488,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -455,7 +499,7 @@
         <v>42969</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -479,7 +523,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -492,7 +536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
